--- a/Newfolder/dsr/data/Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB6B6A63-D9C6-4E27-A3AA-F092EFD01F2D}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8950C00A-A3FE-43E3-931E-29D9935EAA36}"/>
   <bookViews>
-    <workbookView xWindow="29430" yWindow="3045" windowWidth="22275" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8895" yWindow="1695" windowWidth="22275" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>country</t>
   </si>
@@ -49,21 +49,6 @@
     <t>Request_type</t>
   </si>
   <si>
-    <t>delete_student</t>
-  </si>
-  <si>
-    <t>delete_parent</t>
-  </si>
-  <si>
-    <t>delete_educator</t>
-  </si>
-  <si>
-    <t>close_student</t>
-  </si>
-  <si>
-    <t>close_educator</t>
-  </si>
-  <si>
     <t>ethan.mitchell@mailinator.com</t>
   </si>
   <si>
@@ -173,6 +158,12 @@
   </si>
   <si>
     <t>Phone Number</t>
+  </si>
+  <si>
+    <t>DSR test</t>
+  </si>
+  <si>
+    <t>inlinedatafordelete</t>
   </si>
 </sst>
 </file>
@@ -238,18 +229,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -553,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,40 +571,36 @@
     <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
@@ -638,301 +629,296 @@
       <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="L2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="O6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S6" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Newfolder/dsr/data/Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8950C00A-A3FE-43E3-931E-29D9935EAA36}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8E27519-15F8-4B90-A9A5-C9A8839003BF}"/>
   <bookViews>
-    <workbookView xWindow="8895" yWindow="1695" windowWidth="22275" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27405" yWindow="690" windowWidth="22275" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>country</t>
   </si>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>inlinedatafordelete</t>
+  </si>
+  <si>
+    <t>Parenttwo</t>
+  </si>
+  <si>
+    <t>parentthree</t>
+  </si>
+  <si>
+    <t>Parentfour</t>
+  </si>
+  <si>
+    <t>Parentfive</t>
   </si>
 </sst>
 </file>
@@ -237,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -550,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +709,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -754,7 +766,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
@@ -811,7 +823,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
@@ -868,7 +880,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
@@ -927,5 +939,6 @@
     <hyperlink ref="D3:D6" r:id="rId3" display="palmone@mailinator.com" xr:uid="{55410B78-C96B-4D68-B38A-DB4C28FA53A2}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/Parent_form_data.xlsx
@@ -563,7 +563,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
